--- a/Airzai MBD-AUG 22/Altium Data/AIRZAI_MBD_REVC/Project Outputs for AIRZAI_MBD_REVC/AIRZAI BASE BOARD REV C.xlsx
+++ b/Airzai MBD-AUG 22/Altium Data/AIRZAI_MBD_REVC/Project Outputs for AIRZAI_MBD_REVC/AIRZAI BASE BOARD REV C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prajeeth\OneDrive\Weekly updates\GitHub\Airzai-Hardware\Airzai MBD-AUG 22\Altium Data\AIRZAI_MBD_REVC\Project Outputs for AIRZAI_MBD_REVC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{2209C0E1-9463-46B9-8505-753C5D5D74E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{AA7BCCC2-4D0C-4D31-A134-858B0B57D9E5}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="8_{2209C0E1-9463-46B9-8505-753C5D5D74E9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{91B6E123-FA26-4D87-8033-8B5FA49FE716}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="14550" windowHeight="15300" xr2:uid="{506DBFA9-DD65-4D09-823B-EAAB48F074C5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{506DBFA9-DD65-4D09-823B-EAAB48F074C5}"/>
   </bookViews>
   <sheets>
     <sheet name="AIRZAI BASE BOARD REV C" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
   <si>
     <t>Comment</t>
   </si>
@@ -171,18 +171,6 @@
     <t>D6</t>
   </si>
   <si>
-    <t>Fiducial</t>
-  </si>
-  <si>
-    <t>Fiducial mark.  There is nothing to buy or mount.</t>
-  </si>
-  <si>
-    <t>FID1, FID3, FID4</t>
-  </si>
-  <si>
-    <t>Fiducial10-20</t>
-  </si>
-  <si>
     <t>FTSH-105-01-F-D-K</t>
   </si>
   <si>
@@ -324,9 +312,6 @@
     <t>R44</t>
   </si>
   <si>
-    <t>=PartNumber</t>
-  </si>
-  <si>
     <t>RES SMD 4.7K OHM 1% 1/16W 0402</t>
   </si>
   <si>
@@ -345,24 +330,6 @@
     <t>R50, R61, R62, R63</t>
   </si>
   <si>
-    <t>WIREPT</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TP1, TP2, TP3, TP4, TP6, TP7, TP8, TP9, TP10, TP11, TP12, TP13, TP14, TP15, TP16, TP17, TP18, TP19, TP21, TP22, TP23, TP24, TP25, TP26, TP27, TP28, TP29, TP30, TP31, TP32, TP33, TP34, TP35, TP36, TP37, TP38, TP39, TP40, TP41, TP42, TP43, TP44, TP45, TP46, TP47, TP48, TP49, TP50, TP51, TP53, TP54, TP55, TP56, TP57, TP58</t>
-  </si>
-  <si>
-    <t>TP_0.9MM</t>
-  </si>
-  <si>
-    <t>TESTPOINT</t>
-  </si>
-  <si>
-    <t>TP60, TP61</t>
-  </si>
-  <si>
     <t>CC3220MODASF12MONR</t>
   </si>
   <si>
@@ -412,6 +379,9 @@
   </si>
   <si>
     <t>R38, R55, R5,R73</t>
+  </si>
+  <si>
+    <t>311-4.7KLRDKR-ND</t>
   </si>
 </sst>
 </file>
@@ -433,7 +403,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -449,6 +419,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,6 +464,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386AC131-E490-431A-969B-79F49024D406}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,43 +940,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1065,7 +1047,7 @@
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1075,7 +1057,7 @@
         <v>46</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1089,30 +1071,30 @@
         <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -1120,62 +1102,62 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1189,53 +1171,53 @@
         <v>70</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F19" s="3">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20" s="3">
-        <v>36</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,13 +1231,13 @@
         <v>80</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F22" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1269,30 +1251,30 @@
         <v>84</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F23" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -1300,221 +1282,161 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="C25" s="4" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F25" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F26" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>94</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F30" s="3">
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>109</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="3">
         <v>1</v>
       </c>
     </row>
